--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/58_Mersin_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/58_Mersin_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A738C1B-AEFC-4A47-BB9C-45C63A5B322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{581E0D2C-994D-4237-A315-5B7813CB8076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{AFBDE2C4-F6CD-4DB7-A100-A1EACC5D8714}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{57174F11-3B8E-4E13-81C3-FF7A951A8AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{848EDFAA-96DB-45FB-ACDF-E907D457BF4D}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BFB9BFA5-F8E5-4324-AA6B-33527271B1EB}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{F8B5BAB5-572C-4927-ABDF-23BB26EFFBC8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{837BE172-2BB7-4EEF-A756-88CBA2D2D1BD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{638C5E36-2E24-40FA-92F2-645361EA341B}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{3C9E79EE-0378-452E-A860-82FD4298C526}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1855BBEF-97A1-4BB2-AEF9-46AA424F0105}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{58C0948C-0EFE-4DED-897E-1AF0A978196D}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{649663AE-C481-4E22-8D91-E7AB048646E9}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{25AB5AF0-53B2-455E-AB50-DD109BD3AA0C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{2C0E919A-2756-4049-BCF7-A60F27A630E5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F165C253-064D-4AE8-9CFC-432940615713}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{D0062681-A223-4435-9732-DF43F7D05C5C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{6108696B-21FF-4DEE-9066-E8420FB3BE8D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D89FF4-8A5B-41B0-ACEA-7D9CFC4B02FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A8652D-59CA-48D1-BD06-EB124FC75E18}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2588,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A02714-A7CA-479C-A177-A66B6484DAEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE470557-12EE-45ED-8E36-6D015A757B2C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3888,7 +3888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4F394D-8352-426C-A3B4-D5413AE314B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE3C5C1-43CB-45A9-AB3C-61CBBFB778E4}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5186,7 +5186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690326DF-70F7-4FF5-AC42-0D3CA6BB21F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061E1337-5EF8-4AC1-93E6-8FA22E28B429}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6486,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFAFFD8-6251-4FD8-AA6A-877789AD13D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB87F8B-D0E0-4854-81A1-00A5BEA42F02}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7795,7 +7795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB8821-C994-4B34-8C53-3053FEAA27A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43C5AB-3A2B-40FE-90F4-E7FEE9170103}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9106,7 +9106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B69DE-146E-47AB-AA1F-45E3E2E33AF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38306E17-2F28-4DE0-A499-80A7462789E4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10417,7 +10417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8BCDD-7B8B-4C5C-B8A4-952AE0617575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14119581-1B48-446D-928A-D13B9EA2647C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11726,7 +11726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B38067-1173-4F01-B004-CC1E2E770EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290CBEE0-A814-4B65-A25C-F163DFBD4485}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13035,7 +13035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC479EC-C2C6-4F6A-9BF8-5971B42E480B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACFF5D-6223-4371-9C47-582499B9274D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14338,7 +14338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6F69D5-0134-4713-8BA5-80C36C591DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D3649F-E8BD-4169-973A-EB9CB22EB409}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15641,7 +15641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC74AB4-8F97-4C84-9868-9D33E594ADDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4D7E87-2B2D-49CB-98C4-997E482D0256}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
